--- a/forecast_summary_B0B5VY6ZFC.xlsx
+++ b/forecast_summary_B0B5VY6ZFC.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,37 +438,42 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
@@ -477,32 +482,35 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
+        <v>20.03424107932452</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.15411370751833</v>
+      </c>
+      <c r="E2" t="n">
         <v>46</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>56</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>65</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>80</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -510,32 +518,35 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
+        <v>11.10040156009455</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.5993054231058</v>
+      </c>
+      <c r="E3" t="n">
         <v>53</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>65</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>79</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>101</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -543,32 +554,35 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
+        <v>5.061639965621593</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.45749228454788</v>
+      </c>
+      <c r="E4" t="n">
         <v>51</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>63</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>77</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>100</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -576,32 +590,35 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
+        <v>4.438555152078746</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.27631474183907</v>
+      </c>
+      <c r="E5" t="n">
         <v>49</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>60</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>73</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>94</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -609,32 +626,35 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
+        <v>6.575168856790807</v>
+      </c>
+      <c r="D6" t="n">
+        <v>48.92288130858309</v>
+      </c>
+      <c r="E6" t="n">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>43</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>53</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>68</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -642,32 +662,35 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
+        <v>7.139541352799332</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.87019035253424</v>
+      </c>
+      <c r="E7" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>37</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>45</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>57</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -675,32 +698,35 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
+        <v>4.816908752563623</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.09307025216708</v>
+      </c>
+      <c r="E8" t="n">
         <v>31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>38</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>45</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>57</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -708,32 +734,35 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
+        <v>2.093285125235555</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40.25742714699249</v>
+      </c>
+      <c r="E9" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>37</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>46</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>60</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -741,32 +770,35 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
+        <v>1.820122035285462</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42.01327718716401</v>
+      </c>
+      <c r="E10" t="n">
         <v>30</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>37</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>45</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>57</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -774,32 +806,35 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
+        <v>3.953320137071029</v>
+      </c>
+      <c r="D11" t="n">
+        <v>41.00406451224232</v>
+      </c>
+      <c r="E11" t="n">
         <v>30</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>36</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>44</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>56</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -807,32 +842,35 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
+        <v>6.0413320862254</v>
+      </c>
+      <c r="D12" t="n">
+        <v>45.2092060078907</v>
+      </c>
+      <c r="E12" t="n">
         <v>31</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>38</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>46</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>60</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -840,32 +878,35 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
+        <v>6.235680227707387</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46.43699829561332</v>
+      </c>
+      <c r="E13" t="n">
         <v>31</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>38</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>47</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>62</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -873,32 +914,35 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.943922383524951</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46.70142884078353</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37</v>
+      </c>
+      <c r="G14" t="n">
+        <v>46</v>
+      </c>
+      <c r="H14" t="n">
         <v>60</v>
       </c>
-      <c r="C14" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" t="n">
-        <v>37</v>
-      </c>
-      <c r="E14" t="n">
-        <v>46</v>
-      </c>
-      <c r="F14" t="n">
-        <v>60</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -906,32 +950,35 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
+        <v>3.588419864370467</v>
+      </c>
+      <c r="D15" t="n">
+        <v>42.40274492621725</v>
+      </c>
+      <c r="E15" t="n">
         <v>30</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
         <v>37</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>46</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>61</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -939,32 +986,35 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
+        <v>2.679505785396018</v>
+      </c>
+      <c r="D16" t="n">
+        <v>41.7143236359211</v>
+      </c>
+      <c r="E16" t="n">
         <v>30</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>37</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>46</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>61</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -972,32 +1022,35 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
+        <v>1.719121274930058</v>
+      </c>
+      <c r="D17" t="n">
+        <v>41.92729754936695</v>
+      </c>
+      <c r="E17" t="n">
         <v>29</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>36</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>45</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>59</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1005,32 +1058,35 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
+        <v>0.5058088806693166</v>
+      </c>
+      <c r="D18" t="n">
+        <v>41.18239783746878</v>
+      </c>
+      <c r="E18" t="n">
         <v>28</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
         <v>35</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>43</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>55</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1038,32 +1094,35 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
+        <v>-0.406078339166153</v>
+      </c>
+      <c r="D19" t="n">
+        <v>42.87639785738869</v>
+      </c>
+      <c r="E19" t="n">
         <v>28</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
         <v>35</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>42</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>55</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1071,32 +1130,35 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C20" t="n">
+        <v>-0.7144089242021326</v>
+      </c>
+      <c r="D20" t="n">
+        <v>42.29566538611669</v>
+      </c>
+      <c r="E20" t="n">
         <v>29</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>36</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>44</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>57</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1104,32 +1166,35 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
+        <v>-1.086544494681116</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40.36232206449429</v>
+      </c>
+      <c r="E21" t="n">
         <v>28</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>34</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>41</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>53</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B0B5VY6ZFC</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>G24F 2 US</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>B0B5VY6ZFC</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>G24F 2 US</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>349</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>191</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1368,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1392,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>
